--- a/Code/Results/Cases/Case_3_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018514802693128</v>
+        <v>1.050088250651209</v>
       </c>
       <c r="D2">
-        <v>1.033712656516661</v>
+        <v>1.053871971731013</v>
       </c>
       <c r="E2">
-        <v>1.022141526823966</v>
+        <v>1.04720179193776</v>
       </c>
       <c r="F2">
-        <v>1.034667542932931</v>
+        <v>1.062770925183947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049505027527819</v>
+        <v>1.044658817302352</v>
       </c>
       <c r="J2">
-        <v>1.040155497798312</v>
+        <v>1.055123255556531</v>
       </c>
       <c r="K2">
-        <v>1.044721480744701</v>
+        <v>1.056616743001365</v>
       </c>
       <c r="L2">
-        <v>1.033300778060411</v>
+        <v>1.049965090369585</v>
       </c>
       <c r="M2">
-        <v>1.0456641412814</v>
+        <v>1.065491370679172</v>
       </c>
       <c r="N2">
-        <v>1.041632637912722</v>
+        <v>1.05662165160375</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024121585675391</v>
+        <v>1.05124482394254</v>
       </c>
       <c r="D3">
-        <v>1.038056632571429</v>
+        <v>1.054789724880777</v>
       </c>
       <c r="E3">
-        <v>1.026736753856493</v>
+        <v>1.048193626022795</v>
       </c>
       <c r="F3">
-        <v>1.039937317109448</v>
+        <v>1.063921443156906</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051424331261559</v>
+        <v>1.044993886281747</v>
       </c>
       <c r="J3">
-        <v>1.043975594539677</v>
+        <v>1.055928358228258</v>
       </c>
       <c r="K3">
-        <v>1.048224670287194</v>
+        <v>1.057347359245543</v>
       </c>
       <c r="L3">
-        <v>1.037038591056505</v>
+        <v>1.050768253944747</v>
       </c>
       <c r="M3">
-        <v>1.050083474233001</v>
+        <v>1.066455926211547</v>
       </c>
       <c r="N3">
-        <v>1.045458159629598</v>
+        <v>1.057427897613618</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027664288056835</v>
+        <v>1.051993137579391</v>
       </c>
       <c r="D4">
-        <v>1.040804728573822</v>
+        <v>1.055383508792437</v>
       </c>
       <c r="E4">
-        <v>1.029645879435689</v>
+        <v>1.048835634532259</v>
       </c>
       <c r="F4">
-        <v>1.043274060881389</v>
+        <v>1.064666326931831</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052627746866074</v>
+        <v>1.045209467676163</v>
       </c>
       <c r="J4">
-        <v>1.046385868047311</v>
+        <v>1.05644869541789</v>
       </c>
       <c r="K4">
-        <v>1.05043440968452</v>
+        <v>1.057819423044739</v>
       </c>
       <c r="L4">
-        <v>1.039399201467528</v>
+        <v>1.051287566796844</v>
       </c>
       <c r="M4">
-        <v>1.052876820240652</v>
+        <v>1.067079895430331</v>
       </c>
       <c r="N4">
-        <v>1.047871856002074</v>
+        <v>1.057948973741743</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.029134098540818</v>
+        <v>1.052307713814832</v>
       </c>
       <c r="D5">
-        <v>1.041945599711097</v>
+        <v>1.055633120500823</v>
       </c>
       <c r="E5">
-        <v>1.030854111644391</v>
+        <v>1.049105589201874</v>
       </c>
       <c r="F5">
-        <v>1.044660047045622</v>
+        <v>1.064979577595884</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053124747283818</v>
+        <v>1.045299803654903</v>
       </c>
       <c r="J5">
-        <v>1.04738497003848</v>
+        <v>1.056667297675913</v>
       </c>
       <c r="K5">
-        <v>1.051350236302509</v>
+        <v>1.058017712913057</v>
       </c>
       <c r="L5">
-        <v>1.040378253773431</v>
+        <v>1.051505793462157</v>
       </c>
       <c r="M5">
-        <v>1.05403590963646</v>
+        <v>1.067342173618817</v>
       </c>
       <c r="N5">
-        <v>1.04887237683267</v>
+        <v>1.058167886440046</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.029379764573332</v>
+        <v>1.052360531713034</v>
       </c>
       <c r="D6">
-        <v>1.042136327507752</v>
+        <v>1.055675030528768</v>
       </c>
       <c r="E6">
-        <v>1.031056130936721</v>
+        <v>1.04915091897119</v>
       </c>
       <c r="F6">
-        <v>1.044891796659831</v>
+        <v>1.065032179730735</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053207681474257</v>
+        <v>1.045314954202376</v>
       </c>
       <c r="J6">
-        <v>1.047551908152329</v>
+        <v>1.056703993321411</v>
       </c>
       <c r="K6">
-        <v>1.051503250947968</v>
+        <v>1.05805099694443</v>
       </c>
       <c r="L6">
-        <v>1.040541873261251</v>
+        <v>1.051542429268093</v>
       </c>
       <c r="M6">
-        <v>1.054229650156514</v>
+        <v>1.067386209038826</v>
       </c>
       <c r="N6">
-        <v>1.049039552017788</v>
+        <v>1.05820463419757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027684003409101</v>
+        <v>1.051997341019242</v>
       </c>
       <c r="D7">
-        <v>1.040820028883714</v>
+        <v>1.055386844175164</v>
       </c>
       <c r="E7">
-        <v>1.029662081102774</v>
+        <v>1.04883924146606</v>
       </c>
       <c r="F7">
-        <v>1.043292645496722</v>
+        <v>1.064670512202897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052634422455116</v>
+        <v>1.045210675906652</v>
       </c>
       <c r="J7">
-        <v>1.046399273077893</v>
+        <v>1.05645161697093</v>
       </c>
       <c r="K7">
-        <v>1.05044669801097</v>
+        <v>1.057822073254539</v>
       </c>
       <c r="L7">
-        <v>1.039412335373247</v>
+        <v>1.051290483115078</v>
       </c>
       <c r="M7">
-        <v>1.052892367100849</v>
+        <v>1.067083400154881</v>
       </c>
       <c r="N7">
-        <v>1.047885280069338</v>
+        <v>1.057951899443723</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020427836236667</v>
+        <v>1.050479134484721</v>
       </c>
       <c r="D8">
-        <v>1.03519408433452</v>
+        <v>1.054182144032022</v>
       </c>
       <c r="E8">
-        <v>1.02370820776521</v>
+        <v>1.047536940392398</v>
       </c>
       <c r="F8">
-        <v>1.036464089219894</v>
+        <v>1.063159661141581</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050161825113865</v>
+        <v>1.044772310352223</v>
       </c>
       <c r="J8">
-        <v>1.041459620971787</v>
+        <v>1.055395472034386</v>
       </c>
       <c r="K8">
-        <v>1.045917532651876</v>
+        <v>1.056863802032989</v>
       </c>
       <c r="L8">
-        <v>1.034576334096899</v>
+        <v>1.050236603747463</v>
       </c>
       <c r="M8">
-        <v>1.047171785524983</v>
+        <v>1.065817380717145</v>
       </c>
       <c r="N8">
-        <v>1.042938613090655</v>
+        <v>1.056894254660228</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006946500449642</v>
+        <v>1.047803299466382</v>
       </c>
       <c r="D9">
-        <v>1.024771292225332</v>
+        <v>1.052058810213295</v>
       </c>
       <c r="E9">
-        <v>1.012694052581669</v>
+        <v>1.045243832954212</v>
       </c>
       <c r="F9">
-        <v>1.023835763252026</v>
+        <v>1.06050055259977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04549533245944</v>
+        <v>1.043990420812896</v>
       </c>
       <c r="J9">
-        <v>1.032256322214808</v>
+        <v>1.053529654511449</v>
       </c>
       <c r="K9">
-        <v>1.037474862011979</v>
+        <v>1.055169876861557</v>
       </c>
       <c r="L9">
-        <v>1.025584481011737</v>
+        <v>1.048376548116826</v>
       </c>
       <c r="M9">
-        <v>1.036553606613547</v>
+        <v>1.063585224594569</v>
       </c>
       <c r="N9">
-        <v>1.033722244593809</v>
+        <v>1.055025787462396</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9974278295925336</v>
+        <v>1.046018958549808</v>
       </c>
       <c r="D10">
-        <v>1.017437184675429</v>
+        <v>1.050642902488887</v>
       </c>
       <c r="E10">
-        <v>1.004954092268658</v>
+        <v>1.043716224450084</v>
       </c>
       <c r="F10">
-        <v>1.014963099449858</v>
+        <v>1.058729928909636</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042154182809322</v>
+        <v>1.043462805836039</v>
       </c>
       <c r="J10">
-        <v>1.025743872711743</v>
+        <v>1.052282546634136</v>
       </c>
       <c r="K10">
-        <v>1.031498584348919</v>
+        <v>1.054036986740008</v>
       </c>
       <c r="L10">
-        <v>1.019234471469343</v>
+        <v>1.04713447851965</v>
       </c>
       <c r="M10">
-        <v>1.029067345777334</v>
+        <v>1.062096234559303</v>
       </c>
       <c r="N10">
-        <v>1.02720054666546</v>
+        <v>1.053776908548852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9931642785868633</v>
+        <v>1.045246195114106</v>
       </c>
       <c r="D11">
-        <v>1.014159260406382</v>
+        <v>1.050029710723079</v>
       </c>
       <c r="E11">
-        <v>1.001497045754869</v>
+        <v>1.0430550152381</v>
       </c>
       <c r="F11">
-        <v>1.011000271779529</v>
+        <v>1.057963721472583</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040647351958939</v>
+        <v>1.043232832056209</v>
       </c>
       <c r="J11">
-        <v>1.022824222737128</v>
+        <v>1.051741761197212</v>
       </c>
       <c r="K11">
-        <v>1.028819004186537</v>
+        <v>1.053545571316718</v>
       </c>
       <c r="L11">
-        <v>1.016390785100374</v>
+        <v>1.046596160220205</v>
       </c>
       <c r="M11">
-        <v>1.025717678508946</v>
+        <v>1.061451267046618</v>
       </c>
       <c r="N11">
-        <v>1.024276750452993</v>
+        <v>1.053235355134578</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9915577880726865</v>
+        <v>1.04495913494782</v>
       </c>
       <c r="D12">
-        <v>1.0129253307173</v>
+        <v>1.049801929316951</v>
       </c>
       <c r="E12">
-        <v>1.000196014054341</v>
+        <v>1.042809450455919</v>
       </c>
       <c r="F12">
-        <v>1.009508892453918</v>
+        <v>1.057679189747669</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040078103653549</v>
+        <v>1.043147181893294</v>
       </c>
       <c r="J12">
-        <v>1.021723785311166</v>
+        <v>1.051540771515126</v>
       </c>
       <c r="K12">
-        <v>1.02780902172713</v>
+        <v>1.053362906948649</v>
       </c>
       <c r="L12">
-        <v>1.01531945970755</v>
+        <v>1.04639612997981</v>
       </c>
       <c r="M12">
-        <v>1.024456156728689</v>
+        <v>1.061211662778463</v>
       </c>
       <c r="N12">
-        <v>1.023174750279664</v>
+        <v>1.05303408002409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9919034438662345</v>
+        <v>1.045020711322575</v>
       </c>
       <c r="D13">
-        <v>1.013190770419323</v>
+        <v>1.049850789874272</v>
       </c>
       <c r="E13">
-        <v>1.000475874085632</v>
+        <v>1.042862123236311</v>
       </c>
       <c r="F13">
-        <v>1.009829697853793</v>
+        <v>1.057740219532874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04020065003948</v>
+        <v>1.043165564451735</v>
       </c>
       <c r="J13">
-        <v>1.02196057112007</v>
+        <v>1.051583889831647</v>
       </c>
       <c r="K13">
-        <v>1.028026344987196</v>
+        <v>1.053402095004493</v>
       </c>
       <c r="L13">
-        <v>1.015549959485659</v>
+        <v>1.046439040543083</v>
       </c>
       <c r="M13">
-        <v>1.024727558807897</v>
+        <v>1.061263060286878</v>
       </c>
       <c r="N13">
-        <v>1.023411872351576</v>
+        <v>1.053077259573566</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9930319602093165</v>
+        <v>1.045222467077291</v>
       </c>
       <c r="D14">
-        <v>1.014057603326462</v>
+        <v>1.050010882543411</v>
       </c>
       <c r="E14">
-        <v>1.00138985395287</v>
+        <v>1.043034716009816</v>
       </c>
       <c r="F14">
-        <v>1.010877397415711</v>
+        <v>1.057940200531449</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040600495564522</v>
+        <v>1.043225756833259</v>
       </c>
       <c r="J14">
-        <v>1.02273359150644</v>
+        <v>1.05172514973688</v>
       </c>
       <c r="K14">
-        <v>1.028735823251401</v>
+        <v>1.053530474894894</v>
       </c>
       <c r="L14">
-        <v>1.016302541696328</v>
+        <v>1.046579627188877</v>
       </c>
       <c r="M14">
-        <v>1.025613760293606</v>
+        <v>1.06143146199394</v>
       </c>
       <c r="N14">
-        <v>1.024185990515562</v>
+        <v>1.053218720084067</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9937242056447126</v>
+        <v>1.045346772571059</v>
       </c>
       <c r="D15">
-        <v>1.014589487847048</v>
+        <v>1.050109518960029</v>
       </c>
       <c r="E15">
-        <v>1.001950710129923</v>
+        <v>1.04314106109926</v>
       </c>
       <c r="F15">
-        <v>1.01152030877853</v>
+        <v>1.05806342491561</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040845572664942</v>
+        <v>1.043262813168355</v>
       </c>
       <c r="J15">
-        <v>1.023207730996973</v>
+        <v>1.051812168981393</v>
       </c>
       <c r="K15">
-        <v>1.029170985257543</v>
+        <v>1.053609556631856</v>
       </c>
       <c r="L15">
-        <v>1.016764208845009</v>
+        <v>1.046666237323011</v>
       </c>
       <c r="M15">
-        <v>1.026157451410795</v>
+        <v>1.061535215232247</v>
       </c>
       <c r="N15">
-        <v>1.024660803338556</v>
+        <v>1.053305862905888</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9977076728614335</v>
+        <v>1.046070241397038</v>
       </c>
       <c r="D16">
-        <v>1.017652492347236</v>
+        <v>1.050683595975583</v>
       </c>
       <c r="E16">
-        <v>1.005181211420883</v>
+        <v>1.043760112056268</v>
       </c>
       <c r="F16">
-        <v>1.015223448219849</v>
+        <v>1.058780789698276</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042252877128796</v>
+        <v>1.043478036531202</v>
       </c>
       <c r="J16">
-        <v>1.025935458661377</v>
+        <v>1.052318420292735</v>
       </c>
       <c r="K16">
-        <v>1.031674412078393</v>
+        <v>1.054069582054134</v>
       </c>
       <c r="L16">
-        <v>1.019421138700201</v>
+        <v>1.047170194470143</v>
       </c>
       <c r="M16">
-        <v>1.029287286083124</v>
+        <v>1.062139034119075</v>
       </c>
       <c r="N16">
-        <v>1.027392404689119</v>
+        <v>1.05381283315216</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.000167389075807</v>
+        <v>1.046524017810212</v>
       </c>
       <c r="D17">
-        <v>1.019545786496634</v>
+        <v>1.051043673698888</v>
       </c>
       <c r="E17">
-        <v>1.007178625275553</v>
+        <v>1.04414849430557</v>
       </c>
       <c r="F17">
-        <v>1.017513115399923</v>
+        <v>1.059230902681007</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043119203589375</v>
+        <v>1.043612635137969</v>
       </c>
       <c r="J17">
-        <v>1.027619136287845</v>
+        <v>1.052635769120595</v>
       </c>
       <c r="K17">
-        <v>1.033219572037839</v>
+        <v>1.05435791142152</v>
       </c>
       <c r="L17">
-        <v>1.021061947136867</v>
+        <v>1.047486180772198</v>
       </c>
       <c r="M17">
-        <v>1.03122088950472</v>
+        <v>1.062517732941438</v>
       </c>
       <c r="N17">
-        <v>1.029078473330936</v>
+        <v>1.054130632651756</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.001588516443753</v>
+        <v>1.04678868528044</v>
       </c>
       <c r="D18">
-        <v>1.020640323956288</v>
+        <v>1.051253691870639</v>
       </c>
       <c r="E18">
-        <v>1.008333571657686</v>
+        <v>1.044375055778987</v>
       </c>
       <c r="F18">
-        <v>1.018837063498602</v>
+        <v>1.059493492759299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04361875645173</v>
+        <v>1.043690998267568</v>
       </c>
       <c r="J18">
-        <v>1.028591645574352</v>
+        <v>1.052820798165153</v>
       </c>
       <c r="K18">
-        <v>1.034112042057111</v>
+        <v>1.054526005497529</v>
       </c>
       <c r="L18">
-        <v>1.02200999071771</v>
+        <v>1.047670442618578</v>
       </c>
       <c r="M18">
-        <v>1.03233837789324</v>
+        <v>1.062738599902616</v>
       </c>
       <c r="N18">
-        <v>1.030052363692178</v>
+        <v>1.05431592445878</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002070823465159</v>
+        <v>1.04687892795326</v>
       </c>
       <c r="D19">
-        <v>1.021011901726139</v>
+        <v>1.051325301116305</v>
       </c>
       <c r="E19">
-        <v>1.008725694350667</v>
+        <v>1.044452311590762</v>
       </c>
       <c r="F19">
-        <v>1.019286568102433</v>
+        <v>1.059583037154824</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043788128893449</v>
+        <v>1.043717693322852</v>
       </c>
       <c r="J19">
-        <v>1.028921654041267</v>
+        <v>1.052883875563503</v>
       </c>
       <c r="K19">
-        <v>1.034414884651948</v>
+        <v>1.05458330707796</v>
       </c>
       <c r="L19">
-        <v>1.02233174700808</v>
+        <v>1.0477332630892</v>
       </c>
       <c r="M19">
-        <v>1.032717688038633</v>
+        <v>1.062813906180344</v>
       </c>
       <c r="N19">
-        <v>1.030382840808969</v>
+        <v>1.054379091434272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9999049002033532</v>
+        <v>1.046475333213591</v>
       </c>
       <c r="D20">
-        <v>1.019343673471259</v>
+        <v>1.051005041708784</v>
       </c>
       <c r="E20">
-        <v>1.006965374944249</v>
+        <v>1.044106822017446</v>
       </c>
       <c r="F20">
-        <v>1.017268661785391</v>
+        <v>1.05918260498452</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043026854401424</v>
+        <v>1.043598209081109</v>
       </c>
       <c r="J20">
-        <v>1.027439488280469</v>
+        <v>1.052601728374122</v>
       </c>
       <c r="K20">
-        <v>1.033054706837754</v>
+        <v>1.054326985057025</v>
       </c>
       <c r="L20">
-        <v>1.020886842469722</v>
+        <v>1.047452283362252</v>
       </c>
       <c r="M20">
-        <v>1.031014510118133</v>
+        <v>1.062477104387332</v>
       </c>
       <c r="N20">
-        <v>1.028898570202784</v>
+        <v>1.054096543563519</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9927002828826875</v>
+        <v>1.045163055640118</v>
       </c>
       <c r="D21">
-        <v>1.013802802866331</v>
+        <v>1.049963739651893</v>
       </c>
       <c r="E21">
-        <v>1.001121186073841</v>
+        <v>1.042983890702292</v>
       </c>
       <c r="F21">
-        <v>1.010569422328447</v>
+        <v>1.057881309136292</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040483018868446</v>
+        <v>1.043208037964521</v>
       </c>
       <c r="J21">
-        <v>1.022506404764192</v>
+        <v>1.051683555476285</v>
       </c>
       <c r="K21">
-        <v>1.028527311873969</v>
+        <v>1.053492673832597</v>
       </c>
       <c r="L21">
-        <v>1.01608134832925</v>
+        <v>1.046538229997257</v>
       </c>
       <c r="M21">
-        <v>1.02535328285491</v>
+        <v>1.061381872850632</v>
       </c>
       <c r="N21">
-        <v>1.023958481142081</v>
+        <v>1.053177066754851</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9880375913385432</v>
+        <v>1.044337849939723</v>
       </c>
       <c r="D22">
-        <v>1.010223802466603</v>
+        <v>1.049308946524258</v>
       </c>
       <c r="E22">
-        <v>0.9973481573407222</v>
+        <v>1.04227807738001</v>
       </c>
       <c r="F22">
-        <v>1.006244352669726</v>
+        <v>1.057063547929421</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038828098162326</v>
+        <v>1.042961404546622</v>
       </c>
       <c r="J22">
-        <v>1.019311955976136</v>
+        <v>1.051105581257193</v>
       </c>
       <c r="K22">
-        <v>1.025595408649995</v>
+        <v>1.052967352181702</v>
       </c>
       <c r="L22">
-        <v>1.012972331435678</v>
+        <v>1.045963094959387</v>
       </c>
       <c r="M22">
-        <v>1.021693114423585</v>
+        <v>1.060693056629394</v>
       </c>
       <c r="N22">
-        <v>1.020759495870338</v>
+        <v>1.052598271746074</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9905225034475567</v>
+        <v>1.044775319443496</v>
       </c>
       <c r="D23">
-        <v>1.012130485665981</v>
+        <v>1.049656072994279</v>
       </c>
       <c r="E23">
-        <v>0.9993580346764902</v>
+        <v>1.04265222189935</v>
       </c>
       <c r="F23">
-        <v>1.008548309274785</v>
+        <v>1.057497019577515</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039710849413532</v>
+        <v>1.043092274573724</v>
       </c>
       <c r="J23">
-        <v>1.021014538901759</v>
+        <v>1.0514120412785</v>
       </c>
       <c r="K23">
-        <v>1.027158068739429</v>
+        <v>1.053245907095048</v>
       </c>
       <c r="L23">
-        <v>1.01462911311912</v>
+        <v>1.04626802622183</v>
       </c>
       <c r="M23">
-        <v>1.023643369957862</v>
+        <v>1.06105823043529</v>
       </c>
       <c r="N23">
-        <v>1.022464496659005</v>
+        <v>1.052905166975762</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000023549492552</v>
+        <v>1.046497331725786</v>
       </c>
       <c r="D24">
-        <v>1.01943502982441</v>
+        <v>1.051022497870021</v>
       </c>
       <c r="E24">
-        <v>1.007061764758307</v>
+        <v>1.044125651854185</v>
       </c>
       <c r="F24">
-        <v>1.017379155533291</v>
+        <v>1.059204428489714</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043068600788516</v>
+        <v>1.043604728046096</v>
       </c>
       <c r="J24">
-        <v>1.02752069292742</v>
+        <v>1.052617110154134</v>
       </c>
       <c r="K24">
-        <v>1.033129229441953</v>
+        <v>1.054340959607899</v>
       </c>
       <c r="L24">
-        <v>1.020965992514383</v>
+        <v>1.047467600289595</v>
       </c>
       <c r="M24">
-        <v>1.031107795984523</v>
+        <v>1.062495462748714</v>
       </c>
       <c r="N24">
-        <v>1.028979890169648</v>
+        <v>1.054111947187424</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010520363849985</v>
+        <v>1.048495141039477</v>
       </c>
       <c r="D25">
-        <v>1.027530415057586</v>
+        <v>1.05260780367383</v>
       </c>
       <c r="E25">
-        <v>1.015607905452547</v>
+        <v>1.045836455423188</v>
       </c>
       <c r="F25">
-        <v>1.027176298159083</v>
+        <v>1.061187620201475</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046740570931642</v>
+        <v>1.044193677228202</v>
       </c>
       <c r="J25">
-        <v>1.034698789771706</v>
+        <v>1.054012579914203</v>
       </c>
       <c r="K25">
-        <v>1.039715876961329</v>
+        <v>1.055608431070803</v>
       </c>
       <c r="L25">
-        <v>1.027968665798303</v>
+        <v>1.048857773474865</v>
       </c>
       <c r="M25">
-        <v>1.039366892351903</v>
+        <v>1.0641624441667</v>
       </c>
       <c r="N25">
-        <v>1.036168180734792</v>
+        <v>1.055509398674614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.050088250651209</v>
+        <v>1.018514802693129</v>
       </c>
       <c r="D2">
-        <v>1.053871971731013</v>
+        <v>1.033712656516661</v>
       </c>
       <c r="E2">
-        <v>1.04720179193776</v>
+        <v>1.022141526823966</v>
       </c>
       <c r="F2">
-        <v>1.062770925183947</v>
+        <v>1.034667542932931</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044658817302352</v>
+        <v>1.049505027527819</v>
       </c>
       <c r="J2">
-        <v>1.055123255556531</v>
+        <v>1.040155497798312</v>
       </c>
       <c r="K2">
-        <v>1.056616743001365</v>
+        <v>1.044721480744702</v>
       </c>
       <c r="L2">
-        <v>1.049965090369585</v>
+        <v>1.033300778060412</v>
       </c>
       <c r="M2">
-        <v>1.065491370679172</v>
+        <v>1.0456641412814</v>
       </c>
       <c r="N2">
-        <v>1.05662165160375</v>
+        <v>1.041632637912723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05124482394254</v>
+        <v>1.02412158567539</v>
       </c>
       <c r="D3">
-        <v>1.054789724880777</v>
+        <v>1.038056632571428</v>
       </c>
       <c r="E3">
-        <v>1.048193626022795</v>
+        <v>1.026736753856492</v>
       </c>
       <c r="F3">
-        <v>1.063921443156906</v>
+        <v>1.039937317109447</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044993886281747</v>
+        <v>1.051424331261558</v>
       </c>
       <c r="J3">
-        <v>1.055928358228258</v>
+        <v>1.043975594539676</v>
       </c>
       <c r="K3">
-        <v>1.057347359245543</v>
+        <v>1.048224670287193</v>
       </c>
       <c r="L3">
-        <v>1.050768253944747</v>
+        <v>1.037038591056503</v>
       </c>
       <c r="M3">
-        <v>1.066455926211547</v>
+        <v>1.050083474233</v>
       </c>
       <c r="N3">
-        <v>1.057427897613618</v>
+        <v>1.045458159629597</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051993137579391</v>
+        <v>1.027664288056835</v>
       </c>
       <c r="D4">
-        <v>1.055383508792437</v>
+        <v>1.040804728573822</v>
       </c>
       <c r="E4">
-        <v>1.048835634532259</v>
+        <v>1.029645879435689</v>
       </c>
       <c r="F4">
-        <v>1.064666326931831</v>
+        <v>1.043274060881389</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045209467676163</v>
+        <v>1.052627746866074</v>
       </c>
       <c r="J4">
-        <v>1.05644869541789</v>
+        <v>1.046385868047311</v>
       </c>
       <c r="K4">
-        <v>1.057819423044739</v>
+        <v>1.05043440968452</v>
       </c>
       <c r="L4">
-        <v>1.051287566796844</v>
+        <v>1.039399201467528</v>
       </c>
       <c r="M4">
-        <v>1.067079895430331</v>
+        <v>1.052876820240653</v>
       </c>
       <c r="N4">
-        <v>1.057948973741743</v>
+        <v>1.047871856002075</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052307713814832</v>
+        <v>1.029134098540818</v>
       </c>
       <c r="D5">
-        <v>1.055633120500823</v>
+        <v>1.041945599711096</v>
       </c>
       <c r="E5">
-        <v>1.049105589201874</v>
+        <v>1.03085411164439</v>
       </c>
       <c r="F5">
-        <v>1.064979577595884</v>
+        <v>1.044660047045622</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045299803654903</v>
+        <v>1.053124747283818</v>
       </c>
       <c r="J5">
-        <v>1.056667297675913</v>
+        <v>1.04738497003848</v>
       </c>
       <c r="K5">
-        <v>1.058017712913057</v>
+        <v>1.051350236302509</v>
       </c>
       <c r="L5">
-        <v>1.051505793462157</v>
+        <v>1.04037825377343</v>
       </c>
       <c r="M5">
-        <v>1.067342173618817</v>
+        <v>1.05403590963646</v>
       </c>
       <c r="N5">
-        <v>1.058167886440046</v>
+        <v>1.04887237683267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052360531713034</v>
+        <v>1.029379764573332</v>
       </c>
       <c r="D6">
-        <v>1.055675030528768</v>
+        <v>1.042136327507752</v>
       </c>
       <c r="E6">
-        <v>1.04915091897119</v>
+        <v>1.03105613093672</v>
       </c>
       <c r="F6">
-        <v>1.065032179730735</v>
+        <v>1.044891796659831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045314954202376</v>
+        <v>1.053207681474257</v>
       </c>
       <c r="J6">
-        <v>1.056703993321411</v>
+        <v>1.047551908152328</v>
       </c>
       <c r="K6">
-        <v>1.05805099694443</v>
+        <v>1.051503250947967</v>
       </c>
       <c r="L6">
-        <v>1.051542429268093</v>
+        <v>1.04054187326125</v>
       </c>
       <c r="M6">
-        <v>1.067386209038826</v>
+        <v>1.054229650156514</v>
       </c>
       <c r="N6">
-        <v>1.05820463419757</v>
+        <v>1.049039552017788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051997341019242</v>
+        <v>1.027684003409101</v>
       </c>
       <c r="D7">
-        <v>1.055386844175164</v>
+        <v>1.040820028883714</v>
       </c>
       <c r="E7">
-        <v>1.04883924146606</v>
+        <v>1.029662081102774</v>
       </c>
       <c r="F7">
-        <v>1.064670512202897</v>
+        <v>1.043292645496723</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045210675906652</v>
+        <v>1.052634422455117</v>
       </c>
       <c r="J7">
-        <v>1.05645161697093</v>
+        <v>1.046399273077893</v>
       </c>
       <c r="K7">
-        <v>1.057822073254539</v>
+        <v>1.05044669801097</v>
       </c>
       <c r="L7">
-        <v>1.051290483115078</v>
+        <v>1.039412335373247</v>
       </c>
       <c r="M7">
-        <v>1.067083400154881</v>
+        <v>1.05289236710085</v>
       </c>
       <c r="N7">
-        <v>1.057951899443723</v>
+        <v>1.047885280069338</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050479134484721</v>
+        <v>1.020427836236667</v>
       </c>
       <c r="D8">
-        <v>1.054182144032022</v>
+        <v>1.03519408433452</v>
       </c>
       <c r="E8">
-        <v>1.047536940392398</v>
+        <v>1.02370820776521</v>
       </c>
       <c r="F8">
-        <v>1.063159661141581</v>
+        <v>1.036464089219894</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044772310352223</v>
+        <v>1.050161825113865</v>
       </c>
       <c r="J8">
-        <v>1.055395472034386</v>
+        <v>1.041459620971787</v>
       </c>
       <c r="K8">
-        <v>1.056863802032989</v>
+        <v>1.045917532651876</v>
       </c>
       <c r="L8">
-        <v>1.050236603747463</v>
+        <v>1.034576334096899</v>
       </c>
       <c r="M8">
-        <v>1.065817380717145</v>
+        <v>1.047171785524982</v>
       </c>
       <c r="N8">
-        <v>1.056894254660228</v>
+        <v>1.042938613090655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047803299466382</v>
+        <v>1.006946500449643</v>
       </c>
       <c r="D9">
-        <v>1.052058810213295</v>
+        <v>1.024771292225332</v>
       </c>
       <c r="E9">
-        <v>1.045243832954212</v>
+        <v>1.012694052581669</v>
       </c>
       <c r="F9">
-        <v>1.06050055259977</v>
+        <v>1.023835763252026</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043990420812896</v>
+        <v>1.04549533245944</v>
       </c>
       <c r="J9">
-        <v>1.053529654511449</v>
+        <v>1.032256322214809</v>
       </c>
       <c r="K9">
-        <v>1.055169876861557</v>
+        <v>1.037474862011979</v>
       </c>
       <c r="L9">
-        <v>1.048376548116826</v>
+        <v>1.025584481011737</v>
       </c>
       <c r="M9">
-        <v>1.063585224594569</v>
+        <v>1.036553606613547</v>
       </c>
       <c r="N9">
-        <v>1.055025787462396</v>
+        <v>1.033722244593809</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046018958549808</v>
+        <v>0.9974278295925313</v>
       </c>
       <c r="D10">
-        <v>1.050642902488887</v>
+        <v>1.017437184675426</v>
       </c>
       <c r="E10">
-        <v>1.043716224450084</v>
+        <v>1.004954092268656</v>
       </c>
       <c r="F10">
-        <v>1.058729928909636</v>
+        <v>1.014963099449856</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043462805836039</v>
+        <v>1.04215418280932</v>
       </c>
       <c r="J10">
-        <v>1.052282546634136</v>
+        <v>1.02574387271174</v>
       </c>
       <c r="K10">
-        <v>1.054036986740008</v>
+        <v>1.031498584348917</v>
       </c>
       <c r="L10">
-        <v>1.04713447851965</v>
+        <v>1.019234471469341</v>
       </c>
       <c r="M10">
-        <v>1.062096234559303</v>
+        <v>1.029067345777331</v>
       </c>
       <c r="N10">
-        <v>1.053776908548852</v>
+        <v>1.027200546665458</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045246195114106</v>
+        <v>0.993164278586863</v>
       </c>
       <c r="D11">
-        <v>1.050029710723079</v>
+        <v>1.014159260406381</v>
       </c>
       <c r="E11">
-        <v>1.0430550152381</v>
+        <v>1.001497045754869</v>
       </c>
       <c r="F11">
-        <v>1.057963721472583</v>
+        <v>1.011000271779529</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043232832056209</v>
+        <v>1.040647351958939</v>
       </c>
       <c r="J11">
-        <v>1.051741761197212</v>
+        <v>1.022824222737128</v>
       </c>
       <c r="K11">
-        <v>1.053545571316718</v>
+        <v>1.028819004186537</v>
       </c>
       <c r="L11">
-        <v>1.046596160220205</v>
+        <v>1.016390785100374</v>
       </c>
       <c r="M11">
-        <v>1.061451267046618</v>
+        <v>1.025717678508946</v>
       </c>
       <c r="N11">
-        <v>1.053235355134578</v>
+        <v>1.024276750452993</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04495913494782</v>
+        <v>0.9915577880726879</v>
       </c>
       <c r="D12">
-        <v>1.049801929316951</v>
+        <v>1.012925330717301</v>
       </c>
       <c r="E12">
-        <v>1.042809450455919</v>
+        <v>1.000196014054343</v>
       </c>
       <c r="F12">
-        <v>1.057679189747669</v>
+        <v>1.009508892453919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043147181893294</v>
+        <v>1.04007810365355</v>
       </c>
       <c r="J12">
-        <v>1.051540771515126</v>
+        <v>1.021723785311167</v>
       </c>
       <c r="K12">
-        <v>1.053362906948649</v>
+        <v>1.027809021727131</v>
       </c>
       <c r="L12">
-        <v>1.04639612997981</v>
+        <v>1.015319459707551</v>
       </c>
       <c r="M12">
-        <v>1.061211662778463</v>
+        <v>1.02445615672869</v>
       </c>
       <c r="N12">
-        <v>1.05303408002409</v>
+        <v>1.023174750279666</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045020711322575</v>
+        <v>0.9919034438662344</v>
       </c>
       <c r="D13">
-        <v>1.049850789874272</v>
+        <v>1.013190770419323</v>
       </c>
       <c r="E13">
-        <v>1.042862123236311</v>
+        <v>1.000475874085632</v>
       </c>
       <c r="F13">
-        <v>1.057740219532874</v>
+        <v>1.009829697853793</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043165564451735</v>
+        <v>1.040200650039479</v>
       </c>
       <c r="J13">
-        <v>1.051583889831647</v>
+        <v>1.02196057112007</v>
       </c>
       <c r="K13">
-        <v>1.053402095004493</v>
+        <v>1.028026344987196</v>
       </c>
       <c r="L13">
-        <v>1.046439040543083</v>
+        <v>1.015549959485658</v>
       </c>
       <c r="M13">
-        <v>1.061263060286878</v>
+        <v>1.024727558807896</v>
       </c>
       <c r="N13">
-        <v>1.053077259573566</v>
+        <v>1.023411872351576</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045222467077291</v>
+        <v>0.9930319602093167</v>
       </c>
       <c r="D14">
-        <v>1.050010882543411</v>
+        <v>1.014057603326462</v>
       </c>
       <c r="E14">
-        <v>1.043034716009816</v>
+        <v>1.001389853952869</v>
       </c>
       <c r="F14">
-        <v>1.057940200531449</v>
+        <v>1.010877397415711</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043225756833259</v>
+        <v>1.040600495564522</v>
       </c>
       <c r="J14">
-        <v>1.05172514973688</v>
+        <v>1.02273359150644</v>
       </c>
       <c r="K14">
-        <v>1.053530474894894</v>
+        <v>1.028735823251401</v>
       </c>
       <c r="L14">
-        <v>1.046579627188877</v>
+        <v>1.016302541696328</v>
       </c>
       <c r="M14">
-        <v>1.06143146199394</v>
+        <v>1.025613760293606</v>
       </c>
       <c r="N14">
-        <v>1.053218720084067</v>
+        <v>1.024185990515562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045346772571059</v>
+        <v>0.9937242056447148</v>
       </c>
       <c r="D15">
-        <v>1.050109518960029</v>
+        <v>1.014589487847049</v>
       </c>
       <c r="E15">
-        <v>1.04314106109926</v>
+        <v>1.001950710129925</v>
       </c>
       <c r="F15">
-        <v>1.05806342491561</v>
+        <v>1.011520308778532</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043262813168355</v>
+        <v>1.040845572664943</v>
       </c>
       <c r="J15">
-        <v>1.051812168981393</v>
+        <v>1.023207730996975</v>
       </c>
       <c r="K15">
-        <v>1.053609556631856</v>
+        <v>1.029170985257545</v>
       </c>
       <c r="L15">
-        <v>1.046666237323011</v>
+        <v>1.01676420884501</v>
       </c>
       <c r="M15">
-        <v>1.061535215232247</v>
+        <v>1.026157451410797</v>
       </c>
       <c r="N15">
-        <v>1.053305862905888</v>
+        <v>1.024660803338558</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046070241397038</v>
+        <v>0.9977076728614327</v>
       </c>
       <c r="D16">
-        <v>1.050683595975583</v>
+        <v>1.017652492347235</v>
       </c>
       <c r="E16">
-        <v>1.043760112056268</v>
+        <v>1.005181211420883</v>
       </c>
       <c r="F16">
-        <v>1.058780789698276</v>
+        <v>1.015223448219848</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043478036531202</v>
+        <v>1.042252877128796</v>
       </c>
       <c r="J16">
-        <v>1.052318420292735</v>
+        <v>1.025935458661377</v>
       </c>
       <c r="K16">
-        <v>1.054069582054134</v>
+        <v>1.031674412078392</v>
       </c>
       <c r="L16">
-        <v>1.047170194470143</v>
+        <v>1.0194211387002</v>
       </c>
       <c r="M16">
-        <v>1.062139034119075</v>
+        <v>1.029287286083123</v>
       </c>
       <c r="N16">
-        <v>1.05381283315216</v>
+        <v>1.027392404689118</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046524017810212</v>
+        <v>1.000167389075806</v>
       </c>
       <c r="D17">
-        <v>1.051043673698888</v>
+        <v>1.019545786496632</v>
       </c>
       <c r="E17">
-        <v>1.04414849430557</v>
+        <v>1.007178625275551</v>
       </c>
       <c r="F17">
-        <v>1.059230902681007</v>
+        <v>1.017513115399921</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043612635137969</v>
+        <v>1.043119203589374</v>
       </c>
       <c r="J17">
-        <v>1.052635769120595</v>
+        <v>1.027619136287844</v>
       </c>
       <c r="K17">
-        <v>1.05435791142152</v>
+        <v>1.033219572037837</v>
       </c>
       <c r="L17">
-        <v>1.047486180772198</v>
+        <v>1.021061947136865</v>
       </c>
       <c r="M17">
-        <v>1.062517732941438</v>
+        <v>1.031220889504719</v>
       </c>
       <c r="N17">
-        <v>1.054130632651756</v>
+        <v>1.029078473330935</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.04678868528044</v>
+        <v>1.001588516443753</v>
       </c>
       <c r="D18">
-        <v>1.051253691870639</v>
+        <v>1.020640323956287</v>
       </c>
       <c r="E18">
-        <v>1.044375055778987</v>
+        <v>1.008333571657686</v>
       </c>
       <c r="F18">
-        <v>1.059493492759299</v>
+        <v>1.018837063498602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043690998267568</v>
+        <v>1.04361875645173</v>
       </c>
       <c r="J18">
-        <v>1.052820798165153</v>
+        <v>1.028591645574351</v>
       </c>
       <c r="K18">
-        <v>1.054526005497529</v>
+        <v>1.03411204205711</v>
       </c>
       <c r="L18">
-        <v>1.047670442618578</v>
+        <v>1.022009990717709</v>
       </c>
       <c r="M18">
-        <v>1.062738599902616</v>
+        <v>1.03233837789324</v>
       </c>
       <c r="N18">
-        <v>1.05431592445878</v>
+        <v>1.030052363692177</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.04687892795326</v>
+        <v>1.002070823465158</v>
       </c>
       <c r="D19">
-        <v>1.051325301116305</v>
+        <v>1.021011901726139</v>
       </c>
       <c r="E19">
-        <v>1.044452311590762</v>
+        <v>1.008725694350666</v>
       </c>
       <c r="F19">
-        <v>1.059583037154824</v>
+        <v>1.019286568102433</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043717693322852</v>
+        <v>1.043788128893449</v>
       </c>
       <c r="J19">
-        <v>1.052883875563503</v>
+        <v>1.028921654041266</v>
       </c>
       <c r="K19">
-        <v>1.05458330707796</v>
+        <v>1.034414884651947</v>
       </c>
       <c r="L19">
-        <v>1.0477332630892</v>
+        <v>1.02233174700808</v>
       </c>
       <c r="M19">
-        <v>1.062813906180344</v>
+        <v>1.032717688038633</v>
       </c>
       <c r="N19">
-        <v>1.054379091434272</v>
+        <v>1.030382840808968</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046475333213591</v>
+        <v>0.999904900203355</v>
       </c>
       <c r="D20">
-        <v>1.051005041708784</v>
+        <v>1.019343673471261</v>
       </c>
       <c r="E20">
-        <v>1.044106822017446</v>
+        <v>1.00696537494425</v>
       </c>
       <c r="F20">
-        <v>1.05918260498452</v>
+        <v>1.017268661785393</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043598209081109</v>
+        <v>1.043026854401425</v>
       </c>
       <c r="J20">
-        <v>1.052601728374122</v>
+        <v>1.027439488280471</v>
       </c>
       <c r="K20">
-        <v>1.054326985057025</v>
+        <v>1.033054706837756</v>
       </c>
       <c r="L20">
-        <v>1.047452283362252</v>
+        <v>1.020886842469724</v>
       </c>
       <c r="M20">
-        <v>1.062477104387332</v>
+        <v>1.031014510118135</v>
       </c>
       <c r="N20">
-        <v>1.054096543563519</v>
+        <v>1.028898570202786</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045163055640118</v>
+        <v>0.9927002828826873</v>
       </c>
       <c r="D21">
-        <v>1.049963739651893</v>
+        <v>1.013802802866331</v>
       </c>
       <c r="E21">
-        <v>1.042983890702292</v>
+        <v>1.001121186073841</v>
       </c>
       <c r="F21">
-        <v>1.057881309136292</v>
+        <v>1.010569422328447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043208037964521</v>
+        <v>1.040483018868446</v>
       </c>
       <c r="J21">
-        <v>1.051683555476285</v>
+        <v>1.022506404764192</v>
       </c>
       <c r="K21">
-        <v>1.053492673832597</v>
+        <v>1.028527311873969</v>
       </c>
       <c r="L21">
-        <v>1.046538229997257</v>
+        <v>1.01608134832925</v>
       </c>
       <c r="M21">
-        <v>1.061381872850632</v>
+        <v>1.025353282854909</v>
       </c>
       <c r="N21">
-        <v>1.053177066754851</v>
+        <v>1.023958481142081</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044337849939723</v>
+        <v>0.9880375913385436</v>
       </c>
       <c r="D22">
-        <v>1.049308946524258</v>
+        <v>1.010223802466604</v>
       </c>
       <c r="E22">
-        <v>1.04227807738001</v>
+        <v>0.9973481573407225</v>
       </c>
       <c r="F22">
-        <v>1.057063547929421</v>
+        <v>1.006244352669727</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042961404546622</v>
+        <v>1.038828098162327</v>
       </c>
       <c r="J22">
-        <v>1.051105581257193</v>
+        <v>1.019311955976137</v>
       </c>
       <c r="K22">
-        <v>1.052967352181702</v>
+        <v>1.025595408649996</v>
       </c>
       <c r="L22">
-        <v>1.045963094959387</v>
+        <v>1.012972331435678</v>
       </c>
       <c r="M22">
-        <v>1.060693056629394</v>
+        <v>1.021693114423586</v>
       </c>
       <c r="N22">
-        <v>1.052598271746074</v>
+        <v>1.020759495870338</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.044775319443496</v>
+        <v>0.9905225034475555</v>
       </c>
       <c r="D23">
-        <v>1.049656072994279</v>
+        <v>1.01213048566598</v>
       </c>
       <c r="E23">
-        <v>1.04265222189935</v>
+        <v>0.9993580346764893</v>
       </c>
       <c r="F23">
-        <v>1.057497019577515</v>
+        <v>1.008548309274784</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043092274573724</v>
+        <v>1.039710849413531</v>
       </c>
       <c r="J23">
-        <v>1.0514120412785</v>
+        <v>1.021014538901758</v>
       </c>
       <c r="K23">
-        <v>1.053245907095048</v>
+        <v>1.027158068739428</v>
       </c>
       <c r="L23">
-        <v>1.04626802622183</v>
+        <v>1.014629113119119</v>
       </c>
       <c r="M23">
-        <v>1.06105823043529</v>
+        <v>1.023643369957862</v>
       </c>
       <c r="N23">
-        <v>1.052905166975762</v>
+        <v>1.022464496659004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046497331725786</v>
+        <v>1.000023549492551</v>
       </c>
       <c r="D24">
-        <v>1.051022497870021</v>
+        <v>1.019435029824409</v>
       </c>
       <c r="E24">
-        <v>1.044125651854185</v>
+        <v>1.007061764758306</v>
       </c>
       <c r="F24">
-        <v>1.059204428489714</v>
+        <v>1.01737915553329</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043604728046096</v>
+        <v>1.043068600788516</v>
       </c>
       <c r="J24">
-        <v>1.052617110154134</v>
+        <v>1.027520692927419</v>
       </c>
       <c r="K24">
-        <v>1.054340959607899</v>
+        <v>1.033129229441952</v>
       </c>
       <c r="L24">
-        <v>1.047467600289595</v>
+        <v>1.020965992514383</v>
       </c>
       <c r="M24">
-        <v>1.062495462748714</v>
+        <v>1.031107795984522</v>
       </c>
       <c r="N24">
-        <v>1.054111947187424</v>
+        <v>1.028979890169647</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048495141039477</v>
+        <v>1.010520363849985</v>
       </c>
       <c r="D25">
-        <v>1.05260780367383</v>
+        <v>1.027530415057586</v>
       </c>
       <c r="E25">
-        <v>1.045836455423188</v>
+        <v>1.015607905452547</v>
       </c>
       <c r="F25">
-        <v>1.061187620201475</v>
+        <v>1.027176298159083</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044193677228202</v>
+        <v>1.046740570931642</v>
       </c>
       <c r="J25">
-        <v>1.054012579914203</v>
+        <v>1.034698789771706</v>
       </c>
       <c r="K25">
-        <v>1.055608431070803</v>
+        <v>1.039715876961329</v>
       </c>
       <c r="L25">
-        <v>1.048857773474865</v>
+        <v>1.027968665798303</v>
       </c>
       <c r="M25">
-        <v>1.0641624441667</v>
+        <v>1.039366892351903</v>
       </c>
       <c r="N25">
-        <v>1.055509398674614</v>
+        <v>1.036168180734792</v>
       </c>
     </row>
   </sheetData>
